--- a/stop.xlsx
+++ b/stop.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>count</t>
   </si>
@@ -38,9 +38,6 @@
     <t>that</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>than</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>his</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>while</t>
@@ -729,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13602</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -755,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4984</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -763,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8010</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -771,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1607</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -779,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8212</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -787,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3425</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -795,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -803,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>768</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -811,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>752</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -819,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7331</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -827,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1409</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -835,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>45</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -843,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2419</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -851,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>840</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -859,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2662</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -867,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1555</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -875,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2060</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -883,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1647</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -891,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3706</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -899,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>620</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -907,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>505</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -915,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1158</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -923,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>252</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -931,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>569</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -939,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>821</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -947,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>977</v>
+        <v>939</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -955,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>989</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -963,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>2340</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -971,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>4102</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -979,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1433</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -987,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>3169</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1003,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>436</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1011,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1934</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1019,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>2061</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1027,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>758</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1035,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1053</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1043,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>282</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1051,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>549</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1059,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1067,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>299</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1075,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>470</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1083,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>225</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1091,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>488</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1099,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>925</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1107,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>991</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1115,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1489</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1123,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>2974</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1131,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>998</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1139,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1103</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1147,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>196</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1155,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>128</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1163,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1171,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>899</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1179,7 +1173,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>229</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1187,7 +1181,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>719</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1195,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>4901</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1203,7 +1197,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1211,7 +1205,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>418</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1219,7 +1213,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1227,7 +1221,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>384</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1235,7 +1229,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>369</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1243,7 +1237,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>326</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1251,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1192</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1259,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>456</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1267,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>2218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1275,7 +1269,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>275</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1283,7 +1277,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>119</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1291,7 +1285,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>362</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1299,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1307,7 +1301,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>371</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1315,7 +1309,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>235</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1323,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>460</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1331,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>548</v>
+        <v>859</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1339,7 +1333,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>200</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1347,7 +1341,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>889</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1355,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1363,7 +1357,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>771</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1371,7 +1365,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1379,7 +1373,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1387,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>342</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1395,7 +1389,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>169</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1403,7 +1397,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>44</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1411,7 +1405,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>943</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1419,7 +1413,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>841</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1427,7 +1421,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>527</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1435,7 +1429,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>90</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1443,7 +1437,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>360</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1451,7 +1445,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>230</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1459,7 +1453,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>460</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1467,7 +1461,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>174</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1475,7 +1469,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1483,7 +1477,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>431</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1491,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1499,7 +1493,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1507,7 +1501,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1515,7 +1509,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>182</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1523,7 +1517,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1531,7 +1525,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>503</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1539,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>209</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1547,7 +1541,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>334</v>
+        <v>917</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1555,7 +1549,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1563,7 +1557,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1017</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1571,7 +1565,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1579,7 +1573,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>252</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1587,7 +1581,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1595,7 +1589,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1603,7 +1597,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1611,7 +1605,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>232</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1619,7 +1613,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1627,7 +1621,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1635,7 +1629,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1643,7 +1637,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>44</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1651,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1659,7 +1653,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>206</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1667,7 +1661,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1675,7 +1669,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>67</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1683,7 +1677,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1691,22 +1685,6 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" t="n">
         <v>7</v>
       </c>
     </row>

--- a/stop.xlsx
+++ b/stop.xlsx
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12927</v>
+        <v>9477</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4721</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7376</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1508</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7879</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3310</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>753</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>698</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7065</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1344</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2349</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>780</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -845,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2423</v>
+        <v>833</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1459</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -861,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2015</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -869,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1567</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3535</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -885,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>590</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -893,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>474</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -901,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1087</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>237</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>537</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -925,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>782</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>930</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>939</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -949,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>2179</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>3844</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -965,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1275</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>3053</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>376</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>389</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1760</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1955</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>694</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1009</v>
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>235</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>494</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>282</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>457</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>209</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>407</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>172</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>925</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1396</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>2625</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>998</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>800</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>217</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>705</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>294</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>384</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>322</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>366</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>345</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>313</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1109</v>
+        <v>674</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>423</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1809</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>261</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>330</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>436</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>859</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>267</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>617</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>267</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>315</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>874</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>797</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>476</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>327</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>211</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>438</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>423</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>480</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1525,7 +1525,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>317</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>917</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>245</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>210</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>305</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
